--- a/biology/Médecine/Fascia_crural/Fascia_crural.xlsx
+++ b/biology/Médecine/Fascia_crural/Fascia_crural.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia crural (ou aponévrose jambière) est une structure fibreuse du membre inférieur qui forme la gaine fasciale superficielle de la jambe.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia crural enveloppe les muscles de la jambe sauf au niveau de la face médiale du tibia où il se confond avec son périoste.
 En haut, et en arrière il est formé par le prolongement du fascia lata et du fascia poplité. A l'avant il s'insère sur la patella et le ligament de la patella.
